--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N2">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O2">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P2">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q2">
-        <v>0.4476237444666666</v>
+        <v>4.640025620843889</v>
       </c>
       <c r="R2">
-        <v>4.028613700199999</v>
+        <v>41.760230587595</v>
       </c>
       <c r="S2">
-        <v>2.613136862598761E-07</v>
+        <v>5.112028108693921E-06</v>
       </c>
       <c r="T2">
-        <v>2.613136862598761E-07</v>
+        <v>5.112028108693922E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.877551</v>
       </c>
       <c r="O3">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P3">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q3">
-        <v>5.563918761762999</v>
+        <v>3.833640534428333</v>
       </c>
       <c r="R3">
-        <v>50.07526885586699</v>
+        <v>34.50276480985499</v>
       </c>
       <c r="S3">
-        <v>3.248103210921254E-06</v>
+        <v>4.22361421510034E-06</v>
       </c>
       <c r="T3">
-        <v>3.248103210921254E-06</v>
+        <v>4.22361421510034E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N4">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O4">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P4">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q4">
-        <v>514.8897369370299</v>
+        <v>450.2157439964039</v>
       </c>
       <c r="R4">
-        <v>4634.007632433269</v>
+        <v>4051.941695967635</v>
       </c>
       <c r="S4">
-        <v>0.0003005822118232439</v>
+        <v>0.000496013540948419</v>
       </c>
       <c r="T4">
-        <v>0.0003005822118232439</v>
+        <v>0.000496013540948419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N5">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O5">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P5">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q5">
-        <v>45.755845548196</v>
+        <v>2.854142234697778</v>
       </c>
       <c r="R5">
-        <v>411.802609933764</v>
+        <v>25.68728011228</v>
       </c>
       <c r="S5">
-        <v>2.671133695640451E-05</v>
+        <v>3.144477320220473E-06</v>
       </c>
       <c r="T5">
-        <v>2.671133695640451E-05</v>
+        <v>3.144477320220473E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N6">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O6">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P6">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q6">
-        <v>3905.880931336982</v>
+        <v>3392.600734348144</v>
       </c>
       <c r="R6">
-        <v>35152.92838203283</v>
+        <v>30533.4066091333</v>
       </c>
       <c r="S6">
-        <v>0.002280174268851439</v>
+        <v>0.003737710032818557</v>
       </c>
       <c r="T6">
-        <v>0.002280174268851439</v>
+        <v>0.003737710032818557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N7">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O7">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P7">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q7">
-        <v>538.178890250308</v>
+        <v>99.60366030920832</v>
       </c>
       <c r="R7">
-        <v>4843.610012252771</v>
+        <v>896.432942782875</v>
       </c>
       <c r="S7">
-        <v>0.0003141779483707212</v>
+        <v>0.000109735754247165</v>
       </c>
       <c r="T7">
-        <v>0.0003141779483707212</v>
+        <v>0.000109735754247165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N8">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O8">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P8">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q8">
-        <v>0.07632562077777777</v>
+        <v>1.148277882822778</v>
       </c>
       <c r="R8">
-        <v>0.6869305869999999</v>
+        <v>10.334500945405</v>
       </c>
       <c r="S8">
-        <v>4.45573532862481E-08</v>
+        <v>1.265085431255441E-06</v>
       </c>
       <c r="T8">
-        <v>4.455735328624808E-08</v>
+        <v>1.265085431255441E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.877551</v>
       </c>
       <c r="O9">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P9">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q9">
         <v>0.9487198985716665</v>
@@ -1013,10 +1013,10 @@
         <v>8.538479087144999</v>
       </c>
       <c r="S9">
-        <v>5.538434834801742E-07</v>
+        <v>1.045227588181625E-06</v>
       </c>
       <c r="T9">
-        <v>5.538434834801742E-07</v>
+        <v>1.045227588181625E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N10">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O10">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P10">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q10">
-        <v>87.79533992471664</v>
+        <v>111.4159324912628</v>
       </c>
       <c r="R10">
-        <v>790.1580593224498</v>
+        <v>1002.743392421365</v>
       </c>
       <c r="S10">
-        <v>5.125314328332067E-05</v>
+        <v>0.0001227496193325098</v>
       </c>
       <c r="T10">
-        <v>5.125314328332067E-05</v>
+        <v>0.0001227496193325098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N11">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O11">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P11">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q11">
-        <v>7.801961711926666</v>
+        <v>0.7063211866355555</v>
       </c>
       <c r="R11">
-        <v>70.21765540733999</v>
+        <v>6.356890679719999</v>
       </c>
       <c r="S11">
-        <v>4.554627407960911E-06</v>
+        <v>7.781710824239621E-07</v>
       </c>
       <c r="T11">
-        <v>4.554627407960911E-06</v>
+        <v>7.781710824239621E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N12">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O12">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P12">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q12">
-        <v>666.0030672045372</v>
+        <v>839.5747581651889</v>
       </c>
       <c r="R12">
-        <v>5994.027604840834</v>
+        <v>7556.1728234867</v>
       </c>
       <c r="S12">
-        <v>0.0003887991168988615</v>
+        <v>0.0009249797552431978</v>
       </c>
       <c r="T12">
-        <v>0.0003887991168988615</v>
+        <v>0.0009249797552431979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N13">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O13">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P13">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q13">
-        <v>91.76644089064666</v>
+        <v>24.64914841579166</v>
       </c>
       <c r="R13">
-        <v>825.8979680158199</v>
+        <v>221.842335742125</v>
       </c>
       <c r="S13">
-        <v>5.357139168891793E-05</v>
+        <v>2.71565611601037E-05</v>
       </c>
       <c r="T13">
-        <v>5.357139168891793E-05</v>
+        <v>2.715656116010371E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N14">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O14">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P14">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q14">
-        <v>59.24707894611111</v>
+        <v>215.4010631689857</v>
       </c>
       <c r="R14">
-        <v>533.2237105149999</v>
+        <v>1938.609568520872</v>
       </c>
       <c r="S14">
-        <v>3.458724607646702E-05</v>
+        <v>0.0002373125451324867</v>
       </c>
       <c r="T14">
-        <v>3.458724607646701E-05</v>
+        <v>0.0002373125451324868</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.877551</v>
       </c>
       <c r="O15">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P15">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q15">
-        <v>736.4353169438915</v>
+        <v>177.9667429451386</v>
       </c>
       <c r="R15">
-        <v>6627.917852495024</v>
+        <v>1601.700686506248</v>
       </c>
       <c r="S15">
-        <v>0.0004299160394001374</v>
+        <v>0.0001960702519101162</v>
       </c>
       <c r="T15">
-        <v>0.0004299160394001374</v>
+        <v>0.0001960702519101162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N16">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O16">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P16">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q16">
-        <v>68150.34561939391</v>
+        <v>20900.08931774044</v>
       </c>
       <c r="R16">
-        <v>613353.1105745451</v>
+        <v>188100.803859664</v>
       </c>
       <c r="S16">
-        <v>0.03978479304065288</v>
+        <v>0.02302613235292248</v>
       </c>
       <c r="T16">
-        <v>0.03978479304065288</v>
+        <v>0.02302613235292249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N17">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O17">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P17">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q17">
-        <v>6056.202842121366</v>
+        <v>132.4960942085475</v>
       </c>
       <c r="R17">
-        <v>54505.82557909229</v>
+        <v>1192.464847876928</v>
       </c>
       <c r="S17">
-        <v>0.003535488697763044</v>
+        <v>0.0001459741417899902</v>
       </c>
       <c r="T17">
-        <v>0.003535488697763044</v>
+        <v>0.0001459741417899902</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N18">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O18">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P18">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q18">
-        <v>516978.9108679975</v>
+        <v>157492.622843226</v>
       </c>
       <c r="R18">
-        <v>4652810.197811977</v>
+        <v>1417433.605589034</v>
       </c>
       <c r="S18">
-        <v>0.3018018292986074</v>
+        <v>0.1735134201134165</v>
       </c>
       <c r="T18">
-        <v>0.3018018292986073</v>
+        <v>0.1735134201134165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N19">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O19">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P19">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q19">
-        <v>71232.87714725976</v>
+        <v>4623.839624882065</v>
       </c>
       <c r="R19">
-        <v>641095.8943253378</v>
+        <v>41614.5566239386</v>
       </c>
       <c r="S19">
-        <v>0.0415843125847259</v>
+        <v>0.005094195606659376</v>
       </c>
       <c r="T19">
-        <v>0.0415843125847259</v>
+        <v>0.005094195606659377</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N20">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O20">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P20">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q20">
-        <v>0.6368887343555556</v>
+        <v>1.078212467502444</v>
       </c>
       <c r="R20">
-        <v>5.731998609200001</v>
+        <v>9.703912207522</v>
       </c>
       <c r="S20">
-        <v>3.718027583861354E-07</v>
+        <v>1.187892673750857E-06</v>
       </c>
       <c r="T20">
-        <v>3.718027583861353E-07</v>
+        <v>1.187892673750857E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.877551</v>
       </c>
       <c r="O21">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P21">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q21">
-        <v>7.916463820431333</v>
+        <v>0.8908310767886667</v>
       </c>
       <c r="R21">
-        <v>71.248174383882</v>
+        <v>8.017479691098</v>
       </c>
       <c r="S21">
-        <v>4.621471422443504E-06</v>
+        <v>9.814500773841639E-07</v>
       </c>
       <c r="T21">
-        <v>4.621471422443504E-06</v>
+        <v>9.814500773841639E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N22">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O22">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P22">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q22">
-        <v>732.5962416967133</v>
+        <v>104.6175749681585</v>
       </c>
       <c r="R22">
-        <v>6593.366175270419</v>
+        <v>941.558174713426</v>
       </c>
       <c r="S22">
-        <v>0.0004276748649381694</v>
+        <v>0.0001152597049245071</v>
       </c>
       <c r="T22">
-        <v>0.0004276748649381693</v>
+        <v>0.0001152597049245071</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N23">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O23">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P23">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q23">
-        <v>65.10240558234933</v>
+        <v>0.6632230062808889</v>
       </c>
       <c r="R23">
-        <v>585.9216502411441</v>
+        <v>5.969007056528</v>
       </c>
       <c r="S23">
-        <v>3.800546730910986E-05</v>
+        <v>7.306887779261379E-07</v>
       </c>
       <c r="T23">
-        <v>3.800546730910986E-05</v>
+        <v>7.306887779261378E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N24">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O24">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P24">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q24">
-        <v>5557.371774070299</v>
+        <v>788.3457351183423</v>
       </c>
       <c r="R24">
-        <v>50016.34596663269</v>
+        <v>7095.111616065081</v>
       </c>
       <c r="S24">
-        <v>0.003244281211956664</v>
+        <v>0.0008685395052971687</v>
       </c>
       <c r="T24">
-        <v>0.003244281211956663</v>
+        <v>0.0008685395052971687</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N25">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O25">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P25">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q25">
-        <v>765.7325521835014</v>
+        <v>23.14511106831667</v>
       </c>
       <c r="R25">
-        <v>6891.592969651512</v>
+        <v>208.30599961485</v>
       </c>
       <c r="S25">
-        <v>0.0004470191726282616</v>
+        <v>2.549952694842208E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004470191726282615</v>
+        <v>2.549952694842208E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N26">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O26">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P26">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q26">
-        <v>6.455668722355555</v>
+        <v>90.57851208215187</v>
       </c>
       <c r="R26">
-        <v>58.1010185012</v>
+        <v>815.206608739367</v>
       </c>
       <c r="S26">
-        <v>3.768688797153249E-06</v>
+        <v>9.979253082732303E-05</v>
       </c>
       <c r="T26">
-        <v>3.768688797153248E-06</v>
+        <v>9.979253082732304E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.877551</v>
       </c>
       <c r="O27">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P27">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q27">
-        <v>80.24332213841133</v>
+        <v>74.83696941380033</v>
       </c>
       <c r="R27">
-        <v>722.189899245702</v>
+        <v>673.5327247242029</v>
       </c>
       <c r="S27">
-        <v>4.684442808258682E-05</v>
+        <v>8.244969370303525E-05</v>
       </c>
       <c r="T27">
-        <v>4.684442808258684E-05</v>
+        <v>8.244969370303525E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N28">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O28">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P28">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q28">
-        <v>7425.784738400512</v>
+        <v>8788.717032932369</v>
       </c>
       <c r="R28">
-        <v>66832.06264560462</v>
+        <v>79098.45329639131</v>
       </c>
       <c r="S28">
-        <v>0.004335022901155032</v>
+        <v>0.009682741472349059</v>
       </c>
       <c r="T28">
-        <v>0.004335022901155032</v>
+        <v>0.009682741472349059</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N29">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O29">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P29">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q29">
-        <v>659.8947991965093</v>
+        <v>55.71606237008978</v>
       </c>
       <c r="R29">
-        <v>5939.053192768584</v>
+        <v>501.444561330808</v>
       </c>
       <c r="S29">
-        <v>0.0003852332336105591</v>
+        <v>6.138372936178779E-05</v>
       </c>
       <c r="T29">
-        <v>0.0003852332336105591</v>
+        <v>6.138372936178779E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N30">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O30">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P30">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q30">
-        <v>56330.95579350983</v>
+        <v>66227.37711309927</v>
       </c>
       <c r="R30">
-        <v>506978.6021415885</v>
+        <v>596046.3940178934</v>
       </c>
       <c r="S30">
-        <v>0.03288487237530882</v>
+        <v>0.07296429826731479</v>
       </c>
       <c r="T30">
-        <v>0.03288487237530882</v>
+        <v>0.07296429826731481</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N31">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O31">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P31">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q31">
-        <v>7761.662940737181</v>
+        <v>1944.375330217108</v>
       </c>
       <c r="R31">
-        <v>69854.96646663462</v>
+        <v>17499.37797195397</v>
       </c>
       <c r="S31">
-        <v>0.004531101800614467</v>
+        <v>0.002142165184879547</v>
       </c>
       <c r="T31">
-        <v>0.004531101800614467</v>
+        <v>0.002142165184879547</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N32">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O32">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P32">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q32">
-        <v>86.16205440431112</v>
+        <v>752.372026843697</v>
       </c>
       <c r="R32">
-        <v>775.4584896388001</v>
+        <v>6771.348241593273</v>
       </c>
       <c r="S32">
-        <v>5.029966423908326E-05</v>
+        <v>0.000828906403478111</v>
       </c>
       <c r="T32">
-        <v>5.029966423908325E-05</v>
+        <v>0.0008289064034781111</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.877551</v>
       </c>
       <c r="O33">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P33">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q33">
-        <v>1070.985793265689</v>
+        <v>621.618097564173</v>
       </c>
       <c r="R33">
-        <v>9638.872139391198</v>
+        <v>5594.562878077558</v>
       </c>
       <c r="S33">
-        <v>0.0006252198392729709</v>
+        <v>0.0006848516467982249</v>
       </c>
       <c r="T33">
-        <v>0.0006252198392729709</v>
+        <v>0.000684851646798225</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N34">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O34">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P34">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q34">
-        <v>99109.92898522048</v>
+        <v>73001.69428071221</v>
       </c>
       <c r="R34">
-        <v>891989.3608669844</v>
+        <v>657015.2485264099</v>
       </c>
       <c r="S34">
-        <v>0.05785837147432897</v>
+        <v>0.08042772683600162</v>
       </c>
       <c r="T34">
-        <v>0.05785837147432896</v>
+        <v>0.08042772683600162</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N35">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O35">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P35">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q35">
-        <v>8807.436384180692</v>
+        <v>462.794163974728</v>
       </c>
       <c r="R35">
-        <v>79266.92745762623</v>
+        <v>4165.147475772553</v>
       </c>
       <c r="S35">
-        <v>0.005141603180125754</v>
+        <v>0.0005098714895345856</v>
       </c>
       <c r="T35">
-        <v>0.005141603180125754</v>
+        <v>0.0005098714895345856</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N36">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O36">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P36">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q36">
-        <v>751833.9441612879</v>
+        <v>550104.2665166795</v>
       </c>
       <c r="R36">
-        <v>6766505.49745159</v>
+        <v>4950938.398650117</v>
       </c>
       <c r="S36">
-        <v>0.4389054464440239</v>
+        <v>0.6060631347622319</v>
       </c>
       <c r="T36">
-        <v>0.4389054464440239</v>
+        <v>0.6060631347622321</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N37">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O37">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P37">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q37">
-        <v>103592.8039881984</v>
+        <v>16150.55905106423</v>
       </c>
       <c r="R37">
-        <v>932335.2358937858</v>
+        <v>145355.0314595781</v>
       </c>
       <c r="S37">
-        <v>0.06047538320918714</v>
+        <v>0.01779346033549394</v>
       </c>
       <c r="T37">
-        <v>0.06047538320918713</v>
+        <v>0.01779346033549394</v>
       </c>
     </row>
   </sheetData>
